--- a/tai_lieu/de_tai_nhom_final_19_5/10.ProjectSprintBacklog.xlsx
+++ b/tai_lieu/de_tai_nhom_final_19_5/10.ProjectSprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoanTN\New folder (4)\XDWMBKHV0856\tai_lieu\de tai nhom final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odink\OneDrive\Documents\KLTN_final\XDWMBKHV0856\tai_lieu\de_tai_nhom_final_19_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31184CC4-9F62-402E-8D67-2375B8B29FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313088D-F088-414C-9FF3-0FFEC7D35FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1369,10 +1369,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,61 +1427,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,21 +1477,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1494,13 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3866,116 +3866,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:W99"/>
+    <sheetView topLeftCell="A99" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AA129" sqref="AA129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="6.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="6.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" customWidth="1"/>
     <col min="16" max="20" width="6" style="1" customWidth="1"/>
-    <col min="21" max="23" width="6.140625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="6.109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="6" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" style="1" customWidth="1"/>
     <col min="29" max="31" width="6" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="32" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:23" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="42" t="s">
         <v>198</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="34"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="72"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="64"/>
       <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="34"/>
       <c r="F2" s="43"/>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="72"/>
+      <c r="H2" s="72"/>
+    </row>
+    <row r="3" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64"/>
       <c r="C3" s="44">
         <v>45661</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="34"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72"/>
+    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64"/>
       <c r="C4" s="44" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="45"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="21"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="35">
         <v>1</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="35">
         <v>2</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>3</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" s="35">
         <v>4</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="35">
         <v>5</v>
       </c>
@@ -4069,11 +4069,11 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="16">
         <f ca="1">SUM(D8:D12)</f>
         <v>93</v>
@@ -4083,21 +4083,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="17" t="s">
         <v>11</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
       <c r="B17" s="63" t="s">
         <v>14</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="63" t="s">
         <v>15</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
         <v>16</v>
@@ -4350,10 +4350,10 @@
         <v>52</v>
       </c>
       <c r="D19" s="63"/>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="69"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="19">
         <v>1</v>
       </c>
@@ -4406,17 +4406,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="63" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="63"/>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="19">
         <v>1</v>
       </c>
@@ -4469,17 +4469,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="63" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="63"/>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="19">
         <v>1</v>
       </c>
@@ -4532,17 +4532,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="63" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="70"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="19">
         <v>1</v>
       </c>
@@ -4595,17 +4595,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
       <c r="C23" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="63"/>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="19">
         <v>1</v>
       </c>
@@ -4658,17 +4658,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="63" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="63"/>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="19">
         <v>1</v>
       </c>
@@ -4721,17 +4721,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="63" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="63"/>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="70"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="19">
         <v>2</v>
       </c>
@@ -4784,17 +4784,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="63"/>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="19">
         <v>2</v>
       </c>
@@ -4847,17 +4847,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
       <c r="B27" s="56"/>
       <c r="C27" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="63"/>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="19">
         <v>3</v>
       </c>
@@ -4910,15 +4910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="61" t="s">
         <v>75</v>
       </c>
@@ -4975,13 +4975,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="61" t="s">
         <v>75</v>
       </c>
@@ -5038,13 +5038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="61" t="s">
         <v>75</v>
       </c>
@@ -5101,13 +5101,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="61" t="s">
         <v>75</v>
       </c>
@@ -5164,13 +5164,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="61" t="s">
         <v>75</v>
       </c>
@@ -5227,13 +5227,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="62"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="61" t="s">
         <v>75</v>
       </c>
@@ -5290,13 +5290,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="56"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="61" t="s">
         <v>75</v>
       </c>
@@ -5353,13 +5353,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="62"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="61" t="s">
         <v>75</v>
       </c>
@@ -5416,13 +5416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="61" t="s">
         <v>75</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
       <c r="C37" s="63" t="s">
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
       <c r="C38" s="63"/>
@@ -5569,15 +5569,15 @@
       <c r="V38" s="34"/>
       <c r="W38" s="34"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
       <c r="B39" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="62"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="56" t="s">
         <v>51</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="62"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="56" t="s">
         <v>64</v>
       </c>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="56" t="s">
         <v>51</v>
       </c>
@@ -5760,11 +5760,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="56"/>
       <c r="B42" s="56"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
       <c r="G42" s="19"/>
@@ -5801,13 +5801,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="67"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="56" t="s">
         <v>64</v>
       </c>
@@ -5864,11 +5864,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="56"/>
       <c r="B44" s="56"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
       <c r="G44" s="19"/>
@@ -5905,13 +5905,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="56" t="s">
         <v>64</v>
       </c>
@@ -5966,11 +5966,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="56"/>
       <c r="B46" s="56"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="61"/>
       <c r="F46" s="61"/>
       <c r="G46" s="19"/>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="67"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="56" t="s">
         <v>51</v>
       </c>
@@ -6070,11 +6070,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="61"/>
       <c r="F48" s="61"/>
       <c r="G48" s="19"/>
@@ -6111,13 +6111,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="56" t="s">
         <v>65</v>
       </c>
@@ -6174,13 +6174,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="56" t="s">
         <v>65</v>
       </c>
@@ -6237,11 +6237,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="61"/>
       <c r="F51" s="61"/>
       <c r="G51" s="19"/>
@@ -6264,17 +6264,17 @@
       <c r="V51" s="34"/>
       <c r="W51" s="34"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="71" t="s">
+      <c r="D52" s="55"/>
+      <c r="E52" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="71"/>
+      <c r="F52" s="66"/>
       <c r="G52" s="19">
         <v>2</v>
       </c>
@@ -6327,13 +6327,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="56"/>
       <c r="B53" s="56"/>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="67"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="56" t="s">
         <v>50</v>
       </c>
@@ -6390,13 +6390,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="67"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="56" t="s">
         <v>65</v>
       </c>
@@ -6453,13 +6453,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="56" t="s">
         <v>50</v>
       </c>
@@ -6516,11 +6516,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="61"/>
       <c r="F56" s="61"/>
       <c r="G56" s="19"/>
@@ -6541,13 +6541,13 @@
       <c r="V56" s="34"/>
       <c r="W56" s="34"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="67"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="56" t="s">
         <v>64</v>
       </c>
@@ -6604,13 +6604,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="56" t="s">
         <v>50</v>
       </c>
@@ -6667,13 +6667,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="56" t="s">
         <v>64</v>
       </c>
@@ -6730,11 +6730,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="61"/>
       <c r="F60" s="61"/>
       <c r="G60" s="19"/>
@@ -6757,13 +6757,13 @@
       <c r="V60" s="34"/>
       <c r="W60" s="34"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="67"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="56" t="s">
         <v>64</v>
       </c>
@@ -6820,13 +6820,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="67"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="56" t="s">
         <v>64</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="37"/>
@@ -6910,13 +6910,13 @@
       <c r="V63" s="34"/>
       <c r="W63" s="34"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="67"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="56" t="s">
         <v>50</v>
       </c>
@@ -6961,13 +6961,13 @@
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="61" t="s">
         <v>122</v>
       </c>
@@ -7014,15 +7014,15 @@
       <c r="V65" s="19"/>
       <c r="W65" s="19"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="56"/>
       <c r="B66" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="62"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="56" t="s">
         <v>63</v>
       </c>
@@ -7079,13 +7079,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="62"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="56" t="s">
         <v>63</v>
       </c>
@@ -7142,13 +7142,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="62"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="56" t="s">
         <v>63</v>
       </c>
@@ -7205,13 +7205,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="62"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="56" t="s">
         <v>63</v>
       </c>
@@ -7268,13 +7268,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="62"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="56" t="s">
         <v>51</v>
       </c>
@@ -7331,13 +7331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="62"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="56" t="s">
         <v>51</v>
       </c>
@@ -7394,13 +7394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="62"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="56" t="s">
         <v>51</v>
       </c>
@@ -7457,13 +7457,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="62"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="56" t="s">
         <v>51</v>
       </c>
@@ -7488,13 +7488,13 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="62"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="56" t="s">
         <v>51</v>
       </c>
@@ -7551,15 +7551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="62"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="56" t="s">
         <v>51</v>
       </c>
@@ -7616,17 +7616,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="55" t="s">
+      <c r="D76" s="58"/>
+      <c r="E76" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="55"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="19">
         <v>2</v>
       </c>
@@ -7679,13 +7679,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -7706,17 +7706,17 @@
       <c r="V77" s="34"/>
       <c r="W77" s="34"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="55" t="s">
+      <c r="D78" s="58"/>
+      <c r="E78" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="55"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="19">
         <v>1</v>
       </c>
@@ -7769,17 +7769,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="55" t="s">
+      <c r="D79" s="58"/>
+      <c r="E79" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="55"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="19">
         <v>2</v>
       </c>
@@ -7832,17 +7832,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="55" t="s">
+      <c r="D80" s="58"/>
+      <c r="E80" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F80" s="55"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="19">
         <v>1</v>
       </c>
@@ -7895,17 +7895,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="55" t="s">
+      <c r="D81" s="58"/>
+      <c r="E81" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F81" s="55"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="19">
         <v>1</v>
       </c>
@@ -7958,17 +7958,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="55" t="s">
+      <c r="D82" s="58"/>
+      <c r="E82" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F82" s="55"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="19">
         <v>1</v>
       </c>
@@ -8021,17 +8021,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="55" t="s">
+      <c r="D83" s="58"/>
+      <c r="E83" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F83" s="55"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -8052,17 +8052,17 @@
       <c r="V83" s="19"/>
       <c r="W83" s="19"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
-      <c r="C84" s="62" t="s">
+      <c r="C84" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="55" t="s">
+      <c r="D84" s="58"/>
+      <c r="E84" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="55"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="19">
         <v>2</v>
       </c>
@@ -8115,19 +8115,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="55" t="s">
+      <c r="D85" s="59"/>
+      <c r="E85" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="55"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="19">
         <v>1</v>
       </c>
@@ -8180,17 +8180,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="55" t="s">
+      <c r="D86" s="59"/>
+      <c r="E86" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F86" s="55"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="19">
         <v>1</v>
       </c>
@@ -8239,17 +8239,17 @@
       <c r="V86" s="19"/>
       <c r="W86" s="19"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D87" s="64"/>
-      <c r="E87" s="55" t="s">
+      <c r="D87" s="59"/>
+      <c r="E87" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="55"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="19">
         <v>2</v>
       </c>
@@ -8302,17 +8302,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="64"/>
-      <c r="E88" s="55" t="s">
+      <c r="D88" s="59"/>
+      <c r="E88" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="55"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="19">
         <v>2</v>
       </c>
@@ -8365,17 +8365,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="55" t="s">
+      <c r="D89" s="59"/>
+      <c r="E89" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F89" s="55"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="19">
         <v>2</v>
       </c>
@@ -8428,13 +8428,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -8455,17 +8455,17 @@
       <c r="V90" s="34"/>
       <c r="W90" s="34"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="55" t="s">
+      <c r="D91" s="59"/>
+      <c r="E91" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F91" s="55"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="19">
         <v>1</v>
       </c>
@@ -8518,13 +8518,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -8545,17 +8545,17 @@
       <c r="V92" s="34"/>
       <c r="W92" s="34"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="64"/>
-      <c r="E93" s="55" t="s">
+      <c r="D93" s="59"/>
+      <c r="E93" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F93" s="55"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="19">
         <v>2</v>
       </c>
@@ -8608,17 +8608,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="64"/>
-      <c r="E94" s="55" t="s">
+      <c r="D94" s="59"/>
+      <c r="E94" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F94" s="55"/>
+      <c r="F94" s="57"/>
       <c r="G94" s="19">
         <v>2</v>
       </c>
@@ -8671,17 +8671,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="55" t="s">
+      <c r="D95" s="59"/>
+      <c r="E95" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F95" s="55"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="19">
         <v>1</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="56"/>
       <c r="B96" s="56" t="s">
         <v>25</v>
@@ -8743,10 +8743,10 @@
         <v>23</v>
       </c>
       <c r="D96" s="63"/>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="65"/>
+      <c r="F96" s="70"/>
       <c r="G96" s="19">
         <v>2</v>
       </c>
@@ -8799,17 +8799,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="63"/>
-      <c r="E97" s="65" t="s">
+      <c r="E97" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="65"/>
+      <c r="F97" s="70"/>
       <c r="G97" s="19">
         <v>2</v>
       </c>
@@ -8862,22 +8862,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="56"/>
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="66" t="s">
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66">
+      <c r="F98" s="62"/>
+      <c r="G98" s="62">
         <f>SUM(G16:G97)</f>
         <v>110</v>
       </c>
-      <c r="H98" s="66"/>
+      <c r="H98" s="62"/>
       <c r="I98" s="19">
         <f t="shared" ref="I98:N98" si="0">SUM(I16:I97)</f>
         <v>114</v>
@@ -8939,20 +8939,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="56"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="66" t="s">
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66">
+      <c r="F99" s="62"/>
+      <c r="G99" s="62">
         <f>SUM(H16:H97)</f>
         <v>116</v>
       </c>
-      <c r="H99" s="66"/>
+      <c r="H99" s="62"/>
       <c r="I99" s="19">
         <f>SUM(I16:I97)</f>
         <v>114</v>
@@ -9016,6 +9016,169 @@
     </row>
   </sheetData>
   <mergeCells count="187">
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B85:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A16:A99"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B98:D99"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="B39:B65"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E93:F93"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E59:F59"/>
@@ -9040,169 +9203,6 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="B39:B65"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B98:D99"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A16:A99"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B85:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9214,30 +9214,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV111"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B93" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="P114" sqref="P114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="8" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="8" width="6.109375" customWidth="1"/>
     <col min="9" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
     <col min="21" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:48" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="42" t="s">
         <v>199</v>
       </c>
@@ -9247,11 +9247,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="72"/>
+    <row r="2" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="64"/>
       <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
@@ -9261,11 +9261,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="72"/>
+    <row r="3" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="64"/>
       <c r="C3" s="48" t="s">
         <v>129</v>
       </c>
@@ -9275,11 +9275,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64"/>
       <c r="C4" s="48" t="s">
         <v>130</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9299,16 +9299,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-    </row>
-    <row r="7" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="s">
         <v>6</v>
@@ -9323,7 +9323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="35">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="35">
         <v>2</v>
@@ -9357,7 +9357,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="35">
         <v>3</v>
@@ -9374,7 +9374,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="35">
         <v>4</v>
@@ -9391,7 +9391,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="35">
         <v>5</v>
@@ -9408,12 +9408,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="16">
         <f ca="1">SUM(D8:D12)</f>
         <v>71</v>
@@ -9423,21 +9423,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="77"/>
+      <c r="E15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="79"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="17" t="s">
         <v>11</v>
       </c>
@@ -9509,7 +9509,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
     </row>
-    <row r="16" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
       <c r="B17" s="63" t="s">
         <v>34</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -9643,7 +9643,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
       <c r="B19" s="63" t="s">
         <v>15</v>
@@ -9697,15 +9697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="61" t="s">
         <v>197</v>
       </c>
@@ -9753,13 +9753,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="61" t="s">
         <v>51</v>
       </c>
@@ -9807,13 +9807,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="61" t="s">
         <v>64</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
       <c r="C23" s="61"/>
@@ -9885,13 +9885,13 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="61" t="s">
         <v>64</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="61"/>
@@ -9963,13 +9963,13 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="61" t="s">
         <v>64</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
       <c r="B27" s="56"/>
       <c r="C27" s="61"/>
@@ -10041,13 +10041,13 @@
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="61" t="s">
         <v>197</v>
       </c>
@@ -10095,11 +10095,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
       <c r="G29" s="19"/>
@@ -10119,13 +10119,13 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="61" t="s">
         <v>64</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="61"/>
@@ -10197,7 +10197,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="56"/>
       <c r="B32" s="56"/>
       <c r="C32" s="63" t="s">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="56"/>
       <c r="B33" s="56"/>
       <c r="C33" s="61"/>
@@ -10275,15 +10275,15 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="56"/>
       <c r="B34" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="61" t="s">
         <v>196</v>
       </c>
@@ -10331,13 +10331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="61" t="s">
         <v>196</v>
       </c>
@@ -10385,13 +10385,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A36" s="56"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="61" t="s">
         <v>196</v>
       </c>
@@ -10437,13 +10437,13 @@
       </c>
       <c r="T36" s="34"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="61" t="s">
         <v>196</v>
       </c>
@@ -10491,13 +10491,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A38" s="56"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="64"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="61" t="s">
         <v>196</v>
       </c>
@@ -10545,13 +10545,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A39" s="56"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="61" t="s">
         <v>196</v>
       </c>
@@ -10599,13 +10599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="61" t="s">
         <v>196</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
       <c r="C41" s="63" t="s">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="56"/>
       <c r="B42" s="56"/>
       <c r="C42" s="61"/>
@@ -10731,15 +10731,15 @@
       <c r="S42" s="34"/>
       <c r="T42" s="34"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="61" t="s">
         <v>51</v>
       </c>
@@ -10787,13 +10787,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A44" s="56"/>
       <c r="B44" s="56"/>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="64"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="61" t="s">
         <v>51</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
       <c r="C45" s="61"/>
@@ -10865,13 +10865,13 @@
       <c r="S45" s="34"/>
       <c r="T45" s="34"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A46" s="56"/>
       <c r="B46" s="56"/>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="61" t="s">
         <v>192</v>
       </c>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="61" t="s">
         <v>192</v>
       </c>
@@ -10973,13 +10973,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="61" t="s">
         <v>192</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="61"/>
@@ -11051,13 +11051,13 @@
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="61" t="s">
         <v>51</v>
       </c>
@@ -11105,13 +11105,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="61" t="s">
         <v>192</v>
       </c>
@@ -11159,13 +11159,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="61" t="s">
         <v>50</v>
       </c>
@@ -11213,13 +11213,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A53" s="56"/>
       <c r="B53" s="56"/>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="64"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="61" t="s">
         <v>50</v>
       </c>
@@ -11267,13 +11267,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="61" t="s">
         <v>50</v>
       </c>
@@ -11321,13 +11321,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="61" t="s">
         <v>50</v>
       </c>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="61" t="s">
         <v>50</v>
       </c>
@@ -11429,13 +11429,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="64"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="61" t="s">
         <v>50</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="61"/>
@@ -11507,13 +11507,13 @@
       <c r="S58" s="34"/>
       <c r="T58" s="34"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="64"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="61" t="s">
         <v>50</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="63" t="s">
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="63"/>
@@ -11647,16 +11647,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
       <c r="B62" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="77" t="s">
+      <c r="D62" s="59"/>
+      <c r="E62" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F62" s="61"/>
@@ -11703,14 +11703,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="77" t="s">
+      <c r="D63" s="59"/>
+      <c r="E63" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F63" s="61"/>
@@ -11757,13 +11757,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="61"/>
       <c r="D64" s="61"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -11781,14 +11781,14 @@
       <c r="S64" s="34"/>
       <c r="T64" s="34"/>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="77" t="s">
+      <c r="D65" s="59"/>
+      <c r="E65" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F65" s="61"/>
@@ -11835,14 +11835,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="77" t="s">
+      <c r="D66" s="59"/>
+      <c r="E66" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F66" s="61"/>
@@ -11889,14 +11889,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="77" t="s">
+      <c r="D67" s="59"/>
+      <c r="E67" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F67" s="61"/>
@@ -11943,13 +11943,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -11967,14 +11967,14 @@
       <c r="S68" s="34"/>
       <c r="T68" s="34"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="77" t="s">
+      <c r="D69" s="59"/>
+      <c r="E69" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F69" s="61"/>
@@ -12021,14 +12021,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="77" t="s">
+      <c r="D70" s="59"/>
+      <c r="E70" s="75" t="s">
         <v>193</v>
       </c>
       <c r="F70" s="61"/>
@@ -12075,15 +12075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A71" s="56"/>
       <c r="B71" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="64"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="61" t="s">
         <v>194</v>
       </c>
@@ -12131,13 +12131,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="64"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="61" t="s">
         <v>194</v>
       </c>
@@ -12185,13 +12185,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="61" t="s">
         <v>195</v>
       </c>
@@ -12239,13 +12239,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="D74" s="64"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="61" t="s">
         <v>195</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="61"/>
@@ -12317,13 +12317,13 @@
       </c>
       <c r="T75" s="34"/>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="64"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="61" t="s">
         <v>195</v>
       </c>
@@ -12371,13 +12371,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="64"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="61" t="s">
         <v>194</v>
       </c>
@@ -12425,13 +12425,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="64"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="61" t="s">
         <v>195</v>
       </c>
@@ -12479,19 +12479,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A79" s="56"/>
       <c r="B79" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65" t="s">
+      <c r="D79" s="59"/>
+      <c r="E79" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F79" s="65"/>
+      <c r="F79" s="70"/>
       <c r="G79" s="19">
         <v>2</v>
       </c>
@@ -12535,17 +12535,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65" t="s">
+      <c r="D80" s="59"/>
+      <c r="E80" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F80" s="65"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="19">
         <v>1</v>
       </c>
@@ -12589,17 +12589,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="65" t="s">
+      <c r="D81" s="59"/>
+      <c r="E81" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F81" s="65"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="19">
         <v>1</v>
       </c>
@@ -12643,17 +12643,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="65" t="s">
+      <c r="D82" s="59"/>
+      <c r="E82" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F82" s="65"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="19">
         <v>1</v>
       </c>
@@ -12697,17 +12697,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65" t="s">
+      <c r="D83" s="59"/>
+      <c r="E83" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F83" s="65"/>
+      <c r="F83" s="70"/>
       <c r="G83" s="19">
         <v>1</v>
       </c>
@@ -12751,17 +12751,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D84" s="64"/>
-      <c r="E84" s="65" t="s">
+      <c r="D84" s="59"/>
+      <c r="E84" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F84" s="65"/>
+      <c r="F84" s="70"/>
       <c r="G84" s="19">
         <v>1</v>
       </c>
@@ -12805,17 +12805,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="65" t="s">
+      <c r="D85" s="59"/>
+      <c r="E85" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F85" s="65"/>
+      <c r="F85" s="70"/>
       <c r="G85" s="19">
         <v>1</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A86" s="56"/>
       <c r="B86" s="56" t="s">
         <v>30</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="61"/>
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="63" t="s">
@@ -12993,17 +12993,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A89" s="56"/>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="66" t="s">
+      <c r="C89" s="79"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="66"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="61">
         <f>SUM(G16:G88)</f>
         <v>88</v>
@@ -13057,15 +13057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A90" s="56"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="66" t="s">
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F90" s="66"/>
+      <c r="F90" s="62"/>
       <c r="G90" s="61">
         <f>SUM(H16:H88)</f>
         <v>104</v>
@@ -13119,12 +13119,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A16:A90"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B43:B61"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="B62:B70"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -13149,150 +13293,6 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B43:B61"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="B62:B70"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A16:A90"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13305,37 +13305,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:L94"/>
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="6" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="1" customWidth="1"/>
     <col min="14" max="17" width="6" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="1" customWidth="1"/>
     <col min="19" max="21" width="6" style="1" customWidth="1"/>
-    <col min="22" max="24" width="6.140625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="6.109375" style="1" customWidth="1"/>
     <col min="25" max="26" width="6" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="6" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:20" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="42" t="s">
         <v>199</v>
       </c>
@@ -13344,11 +13344,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="82"/>
+    <row r="2" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
@@ -13357,11 +13357,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="82"/>
+    <row r="3" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90"/>
       <c r="C3" s="4" t="s">
         <v>200</v>
       </c>
@@ -13370,11 +13370,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82"/>
+    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90"/>
       <c r="C4" s="4">
         <v>45782</v>
       </c>
@@ -13383,21 +13383,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="14"/>
       <c r="F5" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+    <row r="6" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-    </row>
-    <row r="7" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>2</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>3</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>4</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>5</v>
       </c>
@@ -13491,11 +13491,11 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="5">
         <f ca="1">SUM(D8:D12)</f>
         <v>68</v>
@@ -13505,7 +13505,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
@@ -13563,8 +13563,8 @@
         <v>45843</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="84" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -13619,8 +13619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
       <c r="B17" s="63" t="s">
         <v>35</v>
       </c>
@@ -13673,8 +13673,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -13717,8 +13717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
       <c r="B19" s="63" t="s">
         <v>15</v>
       </c>
@@ -13771,15 +13771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="85"/>
       <c r="B20" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="61" t="s">
         <v>253</v>
       </c>
@@ -13827,13 +13827,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+    <row r="21" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="61" t="s">
         <v>253</v>
       </c>
@@ -13881,11 +13881,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+    <row r="22" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A22" s="85"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
       <c r="G22" s="34"/>
@@ -13905,13 +13905,13 @@
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+    <row r="23" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A23" s="85"/>
       <c r="B23" s="56"/>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="61" t="s">
         <v>253</v>
       </c>
@@ -13959,13 +13959,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A24" s="85"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="61" t="s">
         <v>253</v>
       </c>
@@ -14013,11 +14013,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+    <row r="25" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A25" s="85"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
       <c r="G25" s="34"/>
@@ -14037,13 +14037,13 @@
       <c r="S25" s="34"/>
       <c r="T25" s="34"/>
     </row>
-    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+    <row r="26" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A26" s="85"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="61" t="s">
         <v>51</v>
       </c>
@@ -14091,13 +14091,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+    <row r="27" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="85"/>
       <c r="B27" s="56"/>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="61" t="s">
         <v>51</v>
       </c>
@@ -14145,11 +14145,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A28" s="85"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
       <c r="G28" s="34"/>
@@ -14169,13 +14169,13 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
     </row>
-    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+    <row r="29" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A29" s="85"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="98"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="61" t="s">
         <v>252</v>
       </c>
@@ -14223,11 +14223,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
+    <row r="30" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A30" s="85"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61"/>
       <c r="G30" s="34"/>
@@ -14247,15 +14247,15 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
     </row>
-    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
+    <row r="31" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="85"/>
       <c r="B31" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="98"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="61" t="s">
         <v>255</v>
       </c>
@@ -14303,11 +14303,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
+    <row r="32" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A32" s="85"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
       <c r="G32" s="34"/>
@@ -14327,13 +14327,13 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
     </row>
-    <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
+    <row r="33" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A33" s="85"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="98"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="61" t="s">
         <v>255</v>
       </c>
@@ -14381,11 +14381,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
+    <row r="34" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="85"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="G34" s="34"/>
@@ -14405,13 +14405,13 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
     </row>
-    <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
+    <row r="35" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A35" s="85"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="98"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="61" t="s">
         <v>255</v>
       </c>
@@ -14459,13 +14459,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
+    <row r="36" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A36" s="85"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="98"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="61" t="s">
         <v>255</v>
       </c>
@@ -14513,11 +14513,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
+    <row r="37" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A37" s="85"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
       <c r="G37" s="34"/>
@@ -14537,13 +14537,13 @@
       <c r="S37" s="34"/>
       <c r="T37" s="34"/>
     </row>
-    <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
+    <row r="38" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A38" s="85"/>
       <c r="B38" s="56"/>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="98"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="61" t="s">
         <v>255</v>
       </c>
@@ -14591,13 +14591,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A39" s="85"/>
       <c r="B39" s="56"/>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="98"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="61" t="s">
         <v>255</v>
       </c>
@@ -14645,11 +14645,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
+    <row r="40" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="85"/>
       <c r="B40" s="56"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
       <c r="G40" s="34"/>
@@ -14669,13 +14669,13 @@
       <c r="S40" s="34"/>
       <c r="T40" s="34"/>
     </row>
-    <row r="41" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
+    <row r="41" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A41" s="85"/>
       <c r="B41" s="56"/>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="98"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="61" t="s">
         <v>255</v>
       </c>
@@ -14723,13 +14723,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
+    <row r="42" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A42" s="85"/>
       <c r="B42" s="56"/>
-      <c r="C42" s="98" t="s">
+      <c r="C42" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="D42" s="98"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="61" t="s">
         <v>40</v>
       </c>
@@ -14777,15 +14777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
+    <row r="43" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A43" s="85"/>
       <c r="B43" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="98"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="61" t="s">
         <v>253</v>
       </c>
@@ -14833,11 +14833,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="86"/>
+    <row r="44" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="85"/>
       <c r="B44" s="56"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
       <c r="G44" s="34"/>
@@ -14857,13 +14857,13 @@
       <c r="S44" s="34"/>
       <c r="T44" s="34"/>
     </row>
-    <row r="45" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
+    <row r="45" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A45" s="85"/>
       <c r="B45" s="56"/>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="98"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="61" t="s">
         <v>253</v>
       </c>
@@ -14911,13 +14911,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
+    <row r="46" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A46" s="85"/>
       <c r="B46" s="56"/>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="98"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="61" t="s">
         <v>253</v>
       </c>
@@ -14965,13 +14965,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
+    <row r="47" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A47" s="85"/>
       <c r="B47" s="56"/>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="98"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="61" t="s">
         <v>253</v>
       </c>
@@ -15019,13 +15019,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
+    <row r="48" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A48" s="85"/>
       <c r="B48" s="56"/>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="61" t="s">
         <v>51</v>
       </c>
@@ -15073,11 +15073,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
+    <row r="49" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A49" s="85"/>
       <c r="B49" s="56"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="61"/>
       <c r="F49" s="61"/>
       <c r="G49" s="34"/>
@@ -15097,13 +15097,13 @@
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
     </row>
-    <row r="50" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
+    <row r="50" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A50" s="85"/>
       <c r="B50" s="56"/>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="98"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="61" t="s">
         <v>253</v>
       </c>
@@ -15151,13 +15151,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
+    <row r="51" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A51" s="85"/>
       <c r="B51" s="56"/>
-      <c r="C51" s="98" t="s">
+      <c r="C51" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="D51" s="98"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="61" t="s">
         <v>252</v>
       </c>
@@ -15205,11 +15205,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
+    <row r="52" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A52" s="85"/>
       <c r="B52" s="56"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="61"/>
       <c r="F52" s="61"/>
       <c r="G52" s="34"/>
@@ -15229,13 +15229,13 @@
       <c r="S52" s="34"/>
       <c r="T52" s="34"/>
     </row>
-    <row r="53" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
+    <row r="53" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A53" s="85"/>
       <c r="B53" s="56"/>
-      <c r="C53" s="98" t="s">
+      <c r="C53" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D53" s="98"/>
+      <c r="D53" s="81"/>
       <c r="E53" s="61" t="s">
         <v>50</v>
       </c>
@@ -15283,11 +15283,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
+    <row r="54" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A54" s="85"/>
       <c r="B54" s="56"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="61"/>
       <c r="F54" s="61"/>
       <c r="G54" s="34"/>
@@ -15307,13 +15307,13 @@
       <c r="S54" s="34"/>
       <c r="T54" s="34"/>
     </row>
-    <row r="55" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
+    <row r="55" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A55" s="85"/>
       <c r="B55" s="56"/>
-      <c r="C55" s="98" t="s">
+      <c r="C55" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="98"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="61" t="s">
         <v>50</v>
       </c>
@@ -15361,13 +15361,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="86"/>
+    <row r="56" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A56" s="85"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="98"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="61" t="s">
         <v>50</v>
       </c>
@@ -15415,11 +15415,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
+    <row r="57" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A57" s="85"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="61"/>
       <c r="F57" s="61"/>
       <c r="G57" s="34"/>
@@ -15439,13 +15439,13 @@
       <c r="S57" s="34"/>
       <c r="T57" s="34"/>
     </row>
-    <row r="58" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
+    <row r="58" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A58" s="85"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="98" t="s">
+      <c r="C58" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="98"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="61" t="s">
         <v>50</v>
       </c>
@@ -15493,13 +15493,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
+    <row r="59" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A59" s="85"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="98"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="61" t="s">
         <v>50</v>
       </c>
@@ -15547,13 +15547,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
+    <row r="60" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A60" s="85"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="98" t="s">
+      <c r="C60" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="98"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="61" t="s">
         <v>50</v>
       </c>
@@ -15601,13 +15601,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
+    <row r="61" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A61" s="85"/>
       <c r="B61" s="56"/>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="98"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="61" t="s">
         <v>50</v>
       </c>
@@ -15655,13 +15655,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="86"/>
+    <row r="62" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A62" s="85"/>
       <c r="B62" s="56"/>
-      <c r="C62" s="98" t="s">
+      <c r="C62" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="98"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="61" t="s">
         <v>40</v>
       </c>
@@ -15709,15 +15709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="86"/>
+    <row r="63" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A63" s="85"/>
       <c r="B63" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="98" t="s">
+      <c r="C63" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="98"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="61" t="s">
         <v>255</v>
       </c>
@@ -15765,13 +15765,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
+    <row r="64" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A64" s="85"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="98" t="s">
+      <c r="C64" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="D64" s="98"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="61" t="s">
         <v>255</v>
       </c>
@@ -15819,13 +15819,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="86"/>
+    <row r="65" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A65" s="85"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="98"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="61" t="s">
         <v>255</v>
       </c>
@@ -15873,11 +15873,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="86"/>
+    <row r="66" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A66" s="85"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="61"/>
       <c r="F66" s="61"/>
       <c r="G66" s="34"/>
@@ -15897,13 +15897,13 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="86"/>
+    <row r="67" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A67" s="85"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="98"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="61" t="s">
         <v>255</v>
       </c>
@@ -15951,13 +15951,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="86"/>
+    <row r="68" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A68" s="85"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="98" t="s">
+      <c r="C68" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="98"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="61" t="s">
         <v>255</v>
       </c>
@@ -16005,11 +16005,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="86"/>
+    <row r="69" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A69" s="85"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
       <c r="E69" s="61"/>
       <c r="F69" s="61"/>
       <c r="G69" s="34"/>
@@ -16029,13 +16029,13 @@
       <c r="S69" s="34"/>
       <c r="T69" s="34"/>
     </row>
-    <row r="70" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="86"/>
+    <row r="70" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A70" s="85"/>
       <c r="B70" s="56"/>
-      <c r="C70" s="98" t="s">
+      <c r="C70" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="98"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="61" t="s">
         <v>255</v>
       </c>
@@ -16083,13 +16083,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="86"/>
+    <row r="71" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A71" s="85"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="D71" s="98"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="61" t="s">
         <v>255</v>
       </c>
@@ -16137,15 +16137,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="86"/>
+    <row r="72" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A72" s="85"/>
       <c r="B72" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="98" t="s">
+      <c r="C72" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="98"/>
+      <c r="D72" s="81"/>
       <c r="E72" s="61" t="s">
         <v>257</v>
       </c>
@@ -16193,11 +16193,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="86"/>
+    <row r="73" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A73" s="85"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="61"/>
       <c r="F73" s="61"/>
       <c r="G73" s="34"/>
@@ -16217,13 +16217,13 @@
       <c r="S73" s="34"/>
       <c r="T73" s="34"/>
     </row>
-    <row r="74" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
+    <row r="74" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A74" s="85"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="98"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="61" t="s">
         <v>257</v>
       </c>
@@ -16271,13 +16271,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
+    <row r="75" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A75" s="85"/>
       <c r="B75" s="56"/>
-      <c r="C75" s="98" t="s">
+      <c r="C75" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="98"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="61" t="s">
         <v>257</v>
       </c>
@@ -16325,11 +16325,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
+    <row r="76" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A76" s="85"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="61"/>
       <c r="F76" s="61"/>
       <c r="G76" s="34"/>
@@ -16349,13 +16349,13 @@
       <c r="S76" s="34"/>
       <c r="T76" s="34"/>
     </row>
-    <row r="77" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
+    <row r="77" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A77" s="85"/>
       <c r="B77" s="56"/>
-      <c r="C77" s="98" t="s">
+      <c r="C77" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="98"/>
+      <c r="D77" s="81"/>
       <c r="E77" s="61" t="s">
         <v>257</v>
       </c>
@@ -16403,13 +16403,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
+    <row r="78" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A78" s="85"/>
       <c r="B78" s="56"/>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="98"/>
+      <c r="D78" s="81"/>
       <c r="E78" s="61" t="s">
         <v>257</v>
       </c>
@@ -16457,13 +16457,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
+    <row r="79" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A79" s="85"/>
       <c r="B79" s="56"/>
-      <c r="C79" s="98" t="s">
+      <c r="C79" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="98"/>
+      <c r="D79" s="81"/>
       <c r="E79" s="61" t="s">
         <v>257</v>
       </c>
@@ -16511,13 +16511,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
+    <row r="80" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A80" s="85"/>
       <c r="B80" s="56"/>
-      <c r="C80" s="100" t="s">
+      <c r="C80" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="100"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="61" t="s">
         <v>252</v>
       </c>
@@ -16565,15 +16565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="86"/>
+    <row r="81" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A81" s="85"/>
       <c r="B81" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="C81" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="98"/>
+      <c r="D81" s="81"/>
       <c r="E81" s="61" t="s">
         <v>255</v>
       </c>
@@ -16621,11 +16621,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="86"/>
+    <row r="82" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A82" s="85"/>
       <c r="B82" s="56"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="34"/>
@@ -16645,13 +16645,13 @@
       <c r="S82" s="34"/>
       <c r="T82" s="34"/>
     </row>
-    <row r="83" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="86"/>
+    <row r="83" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A83" s="85"/>
       <c r="B83" s="56"/>
-      <c r="C83" s="98" t="s">
+      <c r="C83" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="98"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="61" t="s">
         <v>255</v>
       </c>
@@ -16699,11 +16699,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
+    <row r="84" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A84" s="85"/>
       <c r="B84" s="56"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
       <c r="E84" s="61"/>
       <c r="F84" s="61"/>
       <c r="G84" s="34"/>
@@ -16723,13 +16723,13 @@
       <c r="S84" s="34"/>
       <c r="T84" s="34"/>
     </row>
-    <row r="85" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="86"/>
+    <row r="85" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A85" s="85"/>
       <c r="B85" s="56"/>
-      <c r="C85" s="98" t="s">
+      <c r="C85" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="D85" s="98"/>
+      <c r="D85" s="81"/>
       <c r="E85" s="61" t="s">
         <v>255</v>
       </c>
@@ -16777,13 +16777,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="86"/>
+    <row r="86" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A86" s="85"/>
       <c r="B86" s="56"/>
-      <c r="C86" s="98" t="s">
+      <c r="C86" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="D86" s="98"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="61" t="s">
         <v>255</v>
       </c>
@@ -16831,13 +16831,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="86"/>
+    <row r="87" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A87" s="85"/>
       <c r="B87" s="56"/>
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="98"/>
+      <c r="D87" s="81"/>
       <c r="E87" s="61" t="s">
         <v>255</v>
       </c>
@@ -16885,13 +16885,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="86"/>
+    <row r="88" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A88" s="85"/>
       <c r="B88" s="56"/>
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="98"/>
+      <c r="D88" s="81"/>
       <c r="E88" s="61" t="s">
         <v>255</v>
       </c>
@@ -16939,13 +16939,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="86"/>
+    <row r="89" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A89" s="85"/>
       <c r="B89" s="56"/>
-      <c r="C89" s="98" t="s">
+      <c r="C89" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="D89" s="98"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="61" t="s">
         <v>255</v>
       </c>
@@ -16993,8 +16993,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="85"/>
       <c r="B90" s="56" t="s">
         <v>30</v>
       </c>
@@ -17049,8 +17049,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="85"/>
       <c r="B91" s="56"/>
       <c r="C91" s="61"/>
       <c r="D91" s="61"/>
@@ -17073,8 +17073,8 @@
       </c>
       <c r="T91" s="34"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="85"/>
       <c r="B92" s="56"/>
       <c r="C92" s="63" t="s">
         <v>39</v>
@@ -17127,22 +17127,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
-      <c r="B93" s="68" t="s">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="85"/>
+      <c r="B93" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="66" t="s">
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="75">
+      <c r="F93" s="62"/>
+      <c r="G93" s="80">
         <f>SUM(G16:G92)</f>
         <v>84</v>
       </c>
-      <c r="H93" s="75"/>
+      <c r="H93" s="80"/>
       <c r="I93" s="34">
         <f>SUM(I16:I92)-J18</f>
         <v>97</v>
@@ -17192,20 +17192,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="89"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="66" t="s">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="86"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F94" s="66"/>
-      <c r="G94" s="75">
+      <c r="F94" s="62"/>
+      <c r="G94" s="80">
         <f>SUM(H16:H92)</f>
         <v>97</v>
       </c>
-      <c r="H94" s="75"/>
+      <c r="H94" s="80"/>
       <c r="I94" s="34">
         <f>SUM(I16:I92)</f>
         <v>98</v>
@@ -17257,50 +17257,112 @@
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="B81:B89"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B43:B62"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A16:A94"/>
@@ -17325,112 +17387,50 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="B81:B89"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B43:B62"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17446,51 +17446,51 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96" t="s">
+      <c r="I2" s="99"/>
+      <c r="J2" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="97"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="98"/>
       <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>26</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>27</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -17702,14 +17702,14 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E10" s="90" t="s">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="91"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="94"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E11" s="30" t="s">
         <v>11</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="32" t="s">
         <v>41</v>
       </c>
